--- a/clientComments_13Oct16.xlsx
+++ b/clientComments_13Oct16.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
-  <si>
-    <t>Hero Request Demo - The fade in, fade out is this grey background. Should not be the case.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>Laptop MDPI - Hydro Modal - Last Page - Left Most and Right Most Images are cut off.</t>
   </si>
@@ -62,27 +59,15 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Justify Paragraph</t>
-  </si>
-  <si>
     <t>Schedule a Demo -- Click Outside Modal Doesn’t Close the Modal</t>
   </si>
   <si>
     <t>Laptop MDPI - Hydro Modal</t>
   </si>
   <si>
-    <t>Now its too small</t>
-  </si>
-  <si>
-    <t>In side menu mode, upon clicking the hamburger, screen scrolls upwards</t>
-  </si>
-  <si>
     <t>iphone 5</t>
   </si>
   <si>
-    <t>ipad landscape "designed for engineers, IC" = problem with text below. Too narrow.</t>
-  </si>
-  <si>
     <t>nexus 7</t>
   </si>
   <si>
@@ -92,9 +77,6 @@
     <t>ipad mini</t>
   </si>
   <si>
-    <t>double check tablets</t>
-  </si>
-  <si>
     <t>slider - "Earth Scale Feasibility" - for small screens problem - portrait mode</t>
   </si>
   <si>
@@ -102,12 +84,6 @@
   </si>
   <si>
     <t>landscape fix</t>
-  </si>
-  <si>
-    <t>Laptop MDPI - Landscape - Hero - Font too big. The whole block is not in Center.</t>
-  </si>
-  <si>
-    <t>Justify paragraphs of hydro modal</t>
   </si>
 </sst>
 </file>
@@ -440,11 +416,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,262 +432,151 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/clientComments_13Oct16.xlsx
+++ b/clientComments_13Oct16.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>Laptop MDPI - Hydro Modal - Last Page - Left Most and Right Most Images are cut off.</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>landscape fix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get started button </t>
+  </si>
+  <si>
+    <t>earth scale feasibility bug</t>
   </si>
 </sst>
 </file>
@@ -416,11 +422,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,6 +585,16 @@
         <v>18</v>
       </c>
     </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
